--- a/overlap_for.xlsx
+++ b/overlap_for.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="60">
   <si>
     <t>행</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,37 +206,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x * * * *</t>
-  </si>
-  <si>
-    <t>x x * *</t>
-  </si>
-  <si>
-    <t>* * * * * *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x x x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>        }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x x x *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x x * * *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x * * * * *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* * * * * * *</t>
+    <t>행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별시작(행)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별(열)종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 -행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +376,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1681,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2830,7 +2859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:12">
       <c r="A65" s="3">
         <v>5</v>
       </c>
@@ -2840,7 +2869,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="67" spans="1:11" ht="20.25">
+    <row r="67" spans="1:12" ht="20.25">
       <c r="A67" s="2">
         <v>3</v>
       </c>
@@ -2859,17 +2888,11 @@
       <c r="F67" s="3">
         <v>5</v>
       </c>
-      <c r="H67" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="20.25">
+      <c r="H67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="8"/>
+    </row>
+    <row r="68" spans="1:12" ht="20.25">
       <c r="A68" s="3">
         <v>1</v>
       </c>
@@ -2888,14 +2911,10 @@
       <c r="F68" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H68" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="20.25">
+      <c r="H68" s="7"/>
+      <c r="J68" s="7"/>
+    </row>
+    <row r="69" spans="1:12" ht="20.25">
       <c r="A69" s="3">
         <v>2</v>
       </c>
@@ -2910,14 +2929,10 @@
         <v>4</v>
       </c>
       <c r="F69" s="2"/>
-      <c r="H69" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="20.25">
+      <c r="H69" s="7"/>
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="1:12" ht="20.25">
       <c r="A70" s="3">
         <v>3</v>
       </c>
@@ -2928,14 +2943,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="H70" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="H70" s="7"/>
+      <c r="J70" s="7"/>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="3">
         <v>4</v>
       </c>
@@ -2945,7 +2956,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:12">
       <c r="A72" s="3">
         <v>5</v>
       </c>
@@ -2955,7 +2966,374 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="2">
+        <v>3</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3">
+        <v>2</v>
+      </c>
+      <c r="D75" s="3">
+        <v>3</v>
+      </c>
+      <c r="E75" s="3">
+        <v>4</v>
+      </c>
+      <c r="F75" s="3">
+        <v>5</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="3">
+        <v>1</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="H76" s="4">
+        <v>1</v>
+      </c>
+      <c r="I76" s="4">
+        <v>3</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K76" s="4">
+        <v>3</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="3">
+        <v>2</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="H77" s="4">
+        <v>2</v>
+      </c>
+      <c r="I77" s="4">
+        <v>2</v>
+      </c>
+      <c r="J77" s="9"/>
+      <c r="K77" s="4">
+        <v>4</v>
+      </c>
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="3">
+        <v>3</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H78" s="4">
+        <v>3</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K78" s="4">
+        <v>5</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="3">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="H79" s="4">
+        <v>4</v>
+      </c>
+      <c r="I79" s="4">
+        <v>2</v>
+      </c>
+      <c r="J79" s="9"/>
+      <c r="K79" s="4">
+        <v>4</v>
+      </c>
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="3">
+        <v>5</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="H80" s="4">
+        <v>5</v>
+      </c>
+      <c r="I80" s="4">
+        <v>3</v>
+      </c>
+      <c r="J80" s="9"/>
+      <c r="K80" s="4">
+        <v>3</v>
+      </c>
+      <c r="L80" s="9"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="2">
+        <v>3</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3">
+        <v>2</v>
+      </c>
+      <c r="D87" s="3">
+        <v>3</v>
+      </c>
+      <c r="E87" s="3">
+        <v>4</v>
+      </c>
+      <c r="F87" s="3">
+        <v>5</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="3">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H88" s="4">
+        <v>1</v>
+      </c>
+      <c r="I88" s="4">
+        <v>1</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K88" s="4">
+        <v>5</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="3">
+        <v>2</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="H89" s="4">
+        <v>2</v>
+      </c>
+      <c r="I89" s="4">
+        <v>2</v>
+      </c>
+      <c r="J89" s="9"/>
+      <c r="K89" s="4">
+        <v>4</v>
+      </c>
+      <c r="L89" s="9"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="3">
+        <v>3</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="H90" s="4">
+        <v>3</v>
+      </c>
+      <c r="I90" s="4">
+        <v>3</v>
+      </c>
+      <c r="J90" s="9"/>
+      <c r="K90" s="4">
+        <v>3</v>
+      </c>
+      <c r="L90" s="9"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="3">
+        <v>4</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="H91" s="4">
+        <v>4</v>
+      </c>
+      <c r="I91" s="4">
+        <v>2</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K91" s="4">
+        <v>4</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="3">
+        <v>5</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H92" s="4">
+        <v>5</v>
+      </c>
+      <c r="I92" s="4">
+        <v>1</v>
+      </c>
+      <c r="J92" s="9"/>
+      <c r="K92" s="4">
+        <v>5</v>
+      </c>
+      <c r="L92" s="9"/>
+    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="J78:J80"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="L78:L80"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
